--- a/xlsx/emolComuna.xlsx
+++ b/xlsx/emolComuna.xlsx
@@ -1,109 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcedeno\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">emol_comuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Til Til</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiltil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paihuano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiguano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marchigüe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marchihue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ránquil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranquil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Álamos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Alamos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quilac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quilaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aysén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aisén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coyhaique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coihaique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llay-Llay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llaillay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Ángeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapallar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catemu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papudo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>emol_comuna</t>
+  </si>
+  <si>
+    <t>comuna</t>
+  </si>
+  <si>
+    <t>Til Til</t>
+  </si>
+  <si>
+    <t>Tiltil</t>
+  </si>
+  <si>
+    <t>Paihuano</t>
+  </si>
+  <si>
+    <t>Paiguano</t>
+  </si>
+  <si>
+    <t>Marchigüe</t>
+  </si>
+  <si>
+    <t>Marchihue</t>
+  </si>
+  <si>
+    <t>Ránquil</t>
+  </si>
+  <si>
+    <t>Ranquil</t>
+  </si>
+  <si>
+    <t>Los Álamos</t>
+  </si>
+  <si>
+    <t>Los Alamos</t>
+  </si>
+  <si>
+    <t>Quilac</t>
+  </si>
+  <si>
+    <t>Quilaco</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>Aisén</t>
+  </si>
+  <si>
+    <t>Coyhaique</t>
+  </si>
+  <si>
+    <t>Coihaique</t>
+  </si>
+  <si>
+    <t>Llay-Llay</t>
+  </si>
+  <si>
+    <t>Llaillay</t>
+  </si>
+  <si>
+    <t>Los Ángeles</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Zapalla</t>
+  </si>
+  <si>
+    <t>Zapallar</t>
+  </si>
+  <si>
+    <t>Catem</t>
+  </si>
+  <si>
+    <t>Catemu</t>
+  </si>
+  <si>
+    <t>Papud</t>
+  </si>
+  <si>
+    <t>Papudo</t>
+  </si>
+  <si>
+    <t>Galvarinoxxx</t>
+  </si>
+  <si>
+    <t>Galvarino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,6 +151,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,14 +441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -451,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -459,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -467,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -475,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -483,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -491,7 +514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -499,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -507,7 +530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -515,7 +538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -523,7 +546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -531,7 +554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -539,8 +562,16 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/emolComuna.xlsx
+++ b/xlsx/emolComuna.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>emol_comuna</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>Galvarino</t>
+  </si>
+  <si>
+    <t>La Calera</t>
+  </si>
+  <si>
+    <t>Calera</t>
+  </si>
+  <si>
+    <t>Treguaco</t>
+  </si>
+  <si>
+    <t>Trehuaco</t>
+  </si>
+  <si>
+    <t>Chaitén</t>
+  </si>
+  <si>
+    <t>Chaitén´</t>
   </si>
 </sst>
 </file>
@@ -442,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +588,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
